--- a/www.eia.gov/electricity/monthly/xls/table_a_8_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_a_8_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <t>Table A.8.A. Relative Standard Error for Average Price of Electricity to Ultimate Customers</t>
   </si>
   <si>
-    <t>by End-Use Sector, Census Division, and State, October 2016</t>
+    <t>by End-Use Sector, Census Division, and State, November 2016</t>
   </si>
   <si>
     <t>Census Region and State</t>
@@ -1194,10 +1194,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="6">
-        <v>0.32</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C4" s="6">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="D4" s="6">
         <v>2</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="6">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1214,10 +1214,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="8">
-        <v>0.32</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C5" s="8">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="D5" s="8">
         <v>3</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="8">
-        <v>1</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1234,10 +1234,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="8">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="C6" s="8">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="D6" s="8">
         <v>1</v>
@@ -1257,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="8">
-        <v>0.35</v>
+        <v>0.41</v>
       </c>
       <c r="D7" s="8">
         <v>4</v>
@@ -1274,10 +1274,10 @@
         <v>12</v>
       </c>
       <c r="B8" s="8">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="C8" s="8">
-        <v>0.34</v>
+        <v>0.41</v>
       </c>
       <c r="D8" s="8">
         <v>2</v>
@@ -1317,7 +1317,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="8">
         <v>3</v>
@@ -1334,13 +1334,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="6">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C11" s="6">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="D11" s="6">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="E11" s="6">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>16</v>
       </c>
       <c r="B12" s="8">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="C12" s="8">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="D12" s="8">
         <v>1</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="8">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1374,10 +1374,10 @@
         <v>17</v>
       </c>
       <c r="B13" s="8">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="C13" s="8">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="D13" s="8">
         <v>1</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="8">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1394,10 +1394,10 @@
         <v>18</v>
       </c>
       <c r="B14" s="8">
-        <v>0.27</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C14" s="8">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="8">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1414,10 +1414,10 @@
         <v>19</v>
       </c>
       <c r="B15" s="6">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="C15" s="6">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="D15" s="6">
         <v>1</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="6">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1437,16 +1437,16 @@
         <v>1</v>
       </c>
       <c r="C16" s="8">
-        <v>0.34</v>
+        <v>0.44</v>
       </c>
       <c r="D16" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="8">
         <v>0</v>
       </c>
       <c r="F16" s="8">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="8">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1497,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="8">
-        <v>0.32</v>
+        <v>0.41</v>
       </c>
       <c r="D19" s="8">
         <v>1</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="6">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1574,10 +1574,10 @@
         <v>27</v>
       </c>
       <c r="B23" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="8">
         <v>3</v>
@@ -1620,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" s="8">
         <v>0</v>
@@ -1694,10 +1694,10 @@
         <v>33</v>
       </c>
       <c r="B29" s="6">
-        <v>0.42</v>
+        <v>0.31</v>
       </c>
       <c r="C29" s="6">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="D29" s="6">
         <v>1</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="6">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1720,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E30" s="8">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="8">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
       <c r="C32" s="8">
         <v>1</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="8">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1794,13 +1794,13 @@
         <v>38</v>
       </c>
       <c r="B34" s="8">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="C34" s="8">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="D34" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34" s="8">
         <v>0</v>
@@ -1820,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" s="8">
         <v>0</v>
@@ -1840,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" s="8">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="8">
-        <v>0.49</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1874,19 +1874,19 @@
         <v>42</v>
       </c>
       <c r="B38" s="8">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="C38" s="8">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="D38" s="8">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="E38" s="8">
         <v>0</v>
       </c>
       <c r="F38" s="8">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="6">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1940,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" s="8">
         <v>0</v>
@@ -1954,13 +1954,13 @@
         <v>46</v>
       </c>
       <c r="B42" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" s="8">
         <v>2</v>
       </c>
       <c r="D42" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E42" s="8">
         <v>0</v>
@@ -1994,7 +1994,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="6">
-        <v>1</v>
+        <v>0.49</v>
       </c>
       <c r="C44" s="6">
         <v>1</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="6">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2057,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" s="8">
         <v>3</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="8">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="6">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2114,7 +2114,7 @@
         <v>54</v>
       </c>
       <c r="B50" s="8">
-        <v>0.41</v>
+        <v>1</v>
       </c>
       <c r="C50" s="8">
         <v>1</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="8">
-        <v>0.41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2174,13 +2174,13 @@
         <v>57</v>
       </c>
       <c r="B53" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" s="8">
         <v>3</v>
       </c>
       <c r="D53" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E53" s="8">
         <v>0</v>
@@ -2194,13 +2194,13 @@
         <v>58</v>
       </c>
       <c r="B54" s="8">
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
       <c r="C54" s="8">
         <v>2</v>
       </c>
       <c r="D54" s="8">
-        <v>0.49</v>
+        <v>2</v>
       </c>
       <c r="E54" s="8">
         <v>0</v>
@@ -2220,7 +2220,7 @@
         <v>2</v>
       </c>
       <c r="D55" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E55" s="8">
         <v>0</v>
@@ -2237,7 +2237,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56" s="8">
         <v>2</v>
@@ -2274,7 +2274,7 @@
         <v>62</v>
       </c>
       <c r="B58" s="6">
-        <v>0.28000000000000003</v>
+        <v>0.24</v>
       </c>
       <c r="C58" s="6">
         <v>1</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="6">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2294,10 +2294,10 @@
         <v>63</v>
       </c>
       <c r="B59" s="8">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C59" s="8">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="D59" s="8">
         <v>1</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="8">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2374,13 +2374,13 @@
         <v>67</v>
       </c>
       <c r="B63" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C63" s="8">
         <v>4</v>
       </c>
       <c r="D63" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E63" s="8">
         <v>0</v>
@@ -2414,13 +2414,13 @@
         <v>69</v>
       </c>
       <c r="B65" s="6">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="C65" s="6">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="D65" s="6">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="E65" s="6">
         <v>0</v>
